--- a/analysis/xlsx/2024/2024_나이대별_판매량.xlsx
+++ b/analysis/xlsx/2024/2024_나이대별_판매량.xlsx
@@ -485,9 +485,9 @@
       <c r="E2" t="inlineStr">
         <is>
           <t>2024년도 10대 - 공급가액: 0.0, 예측 공급가액: 0.0
-2024년도 20대 - 공급가액: 1808866000.0, 예측 공급가액: 1863604540.0
-2024년도 30대 - 공급가액: 2219489000.0, 예측 공급가액: 2257494640.0
-2024년도 40대 - 공급가액: 1173999000.0, 예측 공급가액: 1207727000.0</t>
+2024년도 20대 - 공급가액: 1918235000.0, 예측 공급가액: 1971790620.0
+2024년도 30대 - 공급가액: 1990940000.0, 예측 공급가액: 2034234060.0
+2024년도 40대 - 공급가액: 1293179000.0, 예측 공급가액: 1322801500.0</t>
         </is>
       </c>
     </row>
@@ -501,10 +501,10 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>1808866000</v>
+        <v>1918235000</v>
       </c>
       <c r="D3" t="n">
-        <v>1863604540</v>
+        <v>1971790620</v>
       </c>
       <c r="E3" t="inlineStr"/>
     </row>
@@ -518,10 +518,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2219489000</v>
+        <v>1990940000</v>
       </c>
       <c r="D4" t="n">
-        <v>2257494640</v>
+        <v>2034234060</v>
       </c>
       <c r="E4" t="inlineStr"/>
     </row>
@@ -535,10 +535,10 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1173999000</v>
+        <v>1293179000</v>
       </c>
       <c r="D5" t="n">
-        <v>1207727000</v>
+        <v>1322801500</v>
       </c>
       <c r="E5" t="inlineStr"/>
     </row>
